--- a/oLMpics/results_gpt2.xlsx
+++ b/oLMpics/results_gpt2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\PhD\lab\projects\oLMpics\oLMpics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA1073F-CAF7-409C-A1B5-21866617C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CCE547-A3FC-406F-AD8F-6F5843E32EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>47.4</v>
+        <v>52.6</v>
       </c>
       <c r="I2">
         <v>52.8</v>
